--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-熊明敏 (3).xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-熊明敏 (3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -206,11 +206,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -314,6 +314,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -399,6 +406,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -432,19 +445,6 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1088,7 +1088,7 @@
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1100,64 +1100,64 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1166,25 +1166,25 @@
     <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1199,10 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,31 +1211,31 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2256,8 +2256,8 @@
   <sheetPr/>
   <dimension ref="A1:O588"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2322,7 +2322,7 @@
     </row>
     <row r="2" ht="14.25" spans="1:15">
       <c r="A2" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2" s="12">
         <v>43066</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="3" ht="27" spans="1:15">
       <c r="A3" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B3" s="12">
         <v>43066</v>
@@ -4258,7 +4258,7 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/实施周数据-张磊组/11月/48周/实施周数据-张磊组-熊明敏 (3).xlsx
+++ b/实施周数据-张磊组/11月/48周/实施周数据-张磊组-熊明敏 (3).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19770" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>义乌美食广场上线</t>
+  </si>
+  <si>
+    <t>米斯特苏州观前街店上线</t>
   </si>
 </sst>
 </file>
@@ -206,10 +209,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="32">
@@ -223,13 +226,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,50 +268,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF787878"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF787878"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -376,9 +337,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -407,19 +406,20 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,19 +432,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="38">
@@ -504,19 +507,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,7 +561,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,91 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,13 +645,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,30 +982,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1021,6 +1000,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1032,6 +1020,36 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,21 +1074,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1082,160 +1085,160 @@
   </borders>
   <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1253,9 +1256,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1263,13 +1263,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1278,39 +1278,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,34 +1322,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1355,34 +1358,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1397,70 +1400,70 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,13 +2259,13 @@
   <sheetPr/>
   <dimension ref="A1:O588"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.8333333333333" style="8" customWidth="1"/>
+    <col min="1" max="1" width="11.8333333333333" style="7" customWidth="1"/>
     <col min="2" max="3" width="10.6666666666667" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
@@ -2273,1967 +2276,1967 @@
     <col min="10" max="10" width="12.8333333333333" style="2" customWidth="1"/>
     <col min="11" max="11" width="16.6666666666667" style="2" customWidth="1"/>
     <col min="12" max="14" width="13.8333333333333" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
+    <col min="15" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" spans="1:14">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>32</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:15">
-      <c r="A2" s="11">
+      <c r="A2" s="10">
         <v>48</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="11">
         <v>43066</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="14">
         <v>76109298</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>13916263863</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="L2" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N2" s="23">
         <v>18653206377</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="27" spans="1:15">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>48</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>43066</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>76097990</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="12">
         <v>13916263863</v>
       </c>
       <c r="L3" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>45</v>
       </c>
       <c r="N3" s="23">
         <v>15868812918</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18"/>
-      <c r="D4" s="19"/>
+      <c r="A4" s="17"/>
+      <c r="D4" s="18"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="20"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="15" customHeight="1" spans="1:14">
-      <c r="A6" s="20"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="1:14">
-      <c r="A7" s="20"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="14"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
+    </row>
+    <row r="6" s="6" customFormat="1" ht="15" customHeight="1" spans="1:14">
+      <c r="A6" s="19"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
+    </row>
+    <row r="7" s="6" customFormat="1" spans="1:14">
+      <c r="A7" s="19"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="20"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="20"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="20"/>
+      <c r="A26" s="19"/>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="20"/>
+      <c r="A50" s="19"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="20"/>
+      <c r="A51" s="19"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="20"/>
+      <c r="A52" s="19"/>
     </row>
     <row r="53" spans="1:1">
-      <c r="A53" s="20"/>
+      <c r="A53" s="19"/>
     </row>
     <row r="54" spans="1:1">
-      <c r="A54" s="20"/>
+      <c r="A54" s="19"/>
     </row>
     <row r="55" spans="1:1">
-      <c r="A55" s="20"/>
+      <c r="A55" s="19"/>
     </row>
     <row r="56" spans="1:1">
-      <c r="A56" s="20"/>
+      <c r="A56" s="19"/>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="20"/>
+      <c r="A57" s="19"/>
     </row>
     <row r="58" spans="1:1">
-      <c r="A58" s="20"/>
+      <c r="A58" s="19"/>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="20"/>
+      <c r="A59" s="19"/>
     </row>
     <row r="60" spans="1:1">
-      <c r="A60" s="20"/>
+      <c r="A60" s="19"/>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="19"/>
     </row>
     <row r="62" spans="1:1">
-      <c r="A62" s="20"/>
+      <c r="A62" s="19"/>
     </row>
     <row r="63" spans="1:1">
-      <c r="A63" s="20"/>
+      <c r="A63" s="19"/>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="20"/>
+      <c r="A64" s="19"/>
     </row>
     <row r="65" spans="1:1">
-      <c r="A65" s="20"/>
+      <c r="A65" s="19"/>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="20"/>
+      <c r="A66" s="19"/>
     </row>
     <row r="67" spans="1:1">
-      <c r="A67" s="20"/>
+      <c r="A67" s="19"/>
     </row>
     <row r="68" spans="1:1">
-      <c r="A68" s="20"/>
+      <c r="A68" s="19"/>
     </row>
     <row r="69" spans="1:1">
-      <c r="A69" s="20"/>
+      <c r="A69" s="19"/>
     </row>
     <row r="70" spans="1:1">
-      <c r="A70" s="20"/>
+      <c r="A70" s="19"/>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="20"/>
+      <c r="A71" s="19"/>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="20"/>
+      <c r="A72" s="19"/>
     </row>
     <row r="73" spans="1:1">
-      <c r="A73" s="20"/>
+      <c r="A73" s="19"/>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="20"/>
+      <c r="A74" s="19"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="20"/>
+      <c r="A75" s="19"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="20"/>
+      <c r="A76" s="19"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="20"/>
+      <c r="A77" s="19"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="20"/>
+      <c r="A78" s="19"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="20"/>
+      <c r="A79" s="19"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="20"/>
+      <c r="A80" s="19"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="20"/>
+      <c r="A81" s="19"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="20"/>
+      <c r="A82" s="19"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="20"/>
+      <c r="A83" s="19"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="20"/>
+      <c r="A84" s="19"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="20"/>
+      <c r="A85" s="19"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="20"/>
+      <c r="A86" s="19"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="20"/>
+      <c r="A87" s="19"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="20"/>
+      <c r="A88" s="19"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="20"/>
+      <c r="A89" s="19"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="20"/>
+      <c r="A90" s="19"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="20"/>
+      <c r="A91" s="19"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="20"/>
+      <c r="A92" s="19"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="20"/>
+      <c r="A93" s="19"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="20"/>
+      <c r="A94" s="19"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="20"/>
+      <c r="A95" s="19"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="20"/>
+      <c r="A96" s="19"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="20"/>
+      <c r="A97" s="19"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="20"/>
+      <c r="A98" s="19"/>
     </row>
     <row r="99" spans="1:1">
-      <c r="A99" s="20"/>
+      <c r="A99" s="19"/>
     </row>
     <row r="100" spans="1:1">
-      <c r="A100" s="20"/>
+      <c r="A100" s="19"/>
     </row>
     <row r="101" spans="1:1">
-      <c r="A101" s="20"/>
+      <c r="A101" s="19"/>
     </row>
     <row r="102" spans="1:1">
-      <c r="A102" s="20"/>
+      <c r="A102" s="19"/>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="20"/>
+      <c r="A103" s="19"/>
     </row>
     <row r="104" spans="1:1">
-      <c r="A104" s="20"/>
+      <c r="A104" s="19"/>
     </row>
     <row r="105" spans="1:1">
-      <c r="A105" s="20"/>
+      <c r="A105" s="19"/>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="20"/>
+      <c r="A106" s="19"/>
     </row>
     <row r="107" spans="1:1">
-      <c r="A107" s="20"/>
+      <c r="A107" s="19"/>
     </row>
     <row r="108" spans="1:1">
-      <c r="A108" s="20"/>
+      <c r="A108" s="19"/>
     </row>
     <row r="109" spans="1:1">
-      <c r="A109" s="20"/>
+      <c r="A109" s="19"/>
     </row>
     <row r="110" spans="1:1">
-      <c r="A110" s="20"/>
+      <c r="A110" s="19"/>
     </row>
     <row r="111" spans="1:1">
-      <c r="A111" s="20"/>
+      <c r="A111" s="19"/>
     </row>
     <row r="112" spans="1:1">
-      <c r="A112" s="20"/>
+      <c r="A112" s="19"/>
     </row>
     <row r="113" spans="1:1">
-      <c r="A113" s="20"/>
+      <c r="A113" s="19"/>
     </row>
     <row r="114" spans="1:1">
-      <c r="A114" s="20"/>
+      <c r="A114" s="19"/>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="20"/>
+      <c r="A115" s="19"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="20"/>
+      <c r="A116" s="19"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="20"/>
+      <c r="A117" s="19"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="20"/>
+      <c r="A118" s="19"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="20"/>
+      <c r="A119" s="19"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="20"/>
+      <c r="A120" s="19"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="20"/>
+      <c r="A121" s="19"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="20"/>
+      <c r="A122" s="19"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="20"/>
+      <c r="A123" s="19"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="20"/>
+      <c r="A124" s="19"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="20"/>
+      <c r="A125" s="19"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="20"/>
+      <c r="A126" s="19"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="20"/>
+      <c r="A127" s="19"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="20"/>
+      <c r="A128" s="19"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="20"/>
+      <c r="A129" s="19"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="20"/>
+      <c r="A130" s="19"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="20"/>
+      <c r="A131" s="19"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="20"/>
+      <c r="A132" s="19"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="20"/>
+      <c r="A133" s="19"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="20"/>
+      <c r="A134" s="19"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="20"/>
+      <c r="A135" s="19"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="20"/>
+      <c r="A136" s="19"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="20"/>
+      <c r="A137" s="19"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="20"/>
+      <c r="A138" s="19"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="20"/>
+      <c r="A139" s="19"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="20"/>
+      <c r="A140" s="19"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="20"/>
+      <c r="A141" s="19"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="20"/>
+      <c r="A142" s="19"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="20"/>
+      <c r="A143" s="19"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="20"/>
+      <c r="A144" s="19"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="20"/>
+      <c r="A145" s="19"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="20"/>
+      <c r="A146" s="19"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="20"/>
+      <c r="A147" s="19"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="20"/>
+      <c r="A148" s="19"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="20"/>
+      <c r="A149" s="19"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="20"/>
+      <c r="A150" s="19"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="20"/>
+      <c r="A151" s="19"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="20"/>
+      <c r="A152" s="19"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="20"/>
+      <c r="A153" s="19"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="20"/>
+      <c r="A154" s="19"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="20"/>
+      <c r="A155" s="19"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="20"/>
+      <c r="A156" s="19"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="20"/>
+      <c r="A157" s="19"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="20"/>
+      <c r="A158" s="19"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="20"/>
+      <c r="A159" s="19"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="20"/>
+      <c r="A160" s="19"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="20"/>
+      <c r="A161" s="19"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="20"/>
+      <c r="A162" s="19"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="20"/>
+      <c r="A163" s="19"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="20"/>
+      <c r="A164" s="19"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="20"/>
+      <c r="A165" s="19"/>
     </row>
     <row r="166" spans="1:1">
-      <c r="A166" s="20"/>
+      <c r="A166" s="19"/>
     </row>
     <row r="167" spans="1:1">
-      <c r="A167" s="20"/>
+      <c r="A167" s="19"/>
     </row>
     <row r="168" spans="1:1">
-      <c r="A168" s="20"/>
+      <c r="A168" s="19"/>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="20"/>
+      <c r="A169" s="19"/>
     </row>
     <row r="170" spans="1:1">
-      <c r="A170" s="20"/>
+      <c r="A170" s="19"/>
     </row>
     <row r="171" spans="1:1">
-      <c r="A171" s="20"/>
+      <c r="A171" s="19"/>
     </row>
     <row r="172" spans="1:1">
-      <c r="A172" s="20"/>
+      <c r="A172" s="19"/>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="20"/>
+      <c r="A173" s="19"/>
     </row>
     <row r="174" spans="1:1">
-      <c r="A174" s="20"/>
+      <c r="A174" s="19"/>
     </row>
     <row r="175" spans="1:1">
-      <c r="A175" s="20"/>
+      <c r="A175" s="19"/>
     </row>
     <row r="176" spans="1:1">
-      <c r="A176" s="20"/>
+      <c r="A176" s="19"/>
     </row>
     <row r="177" spans="1:1">
-      <c r="A177" s="20"/>
+      <c r="A177" s="19"/>
     </row>
     <row r="178" spans="1:1">
-      <c r="A178" s="20"/>
+      <c r="A178" s="19"/>
     </row>
     <row r="179" spans="1:1">
-      <c r="A179" s="20"/>
+      <c r="A179" s="19"/>
     </row>
     <row r="180" spans="1:1">
-      <c r="A180" s="20"/>
+      <c r="A180" s="19"/>
     </row>
     <row r="181" spans="1:1">
-      <c r="A181" s="20"/>
+      <c r="A181" s="19"/>
     </row>
     <row r="182" spans="1:1">
-      <c r="A182" s="20"/>
+      <c r="A182" s="19"/>
     </row>
     <row r="183" spans="1:1">
-      <c r="A183" s="20"/>
+      <c r="A183" s="19"/>
     </row>
     <row r="184" spans="1:1">
-      <c r="A184" s="20"/>
+      <c r="A184" s="19"/>
     </row>
     <row r="185" spans="1:1">
-      <c r="A185" s="20"/>
+      <c r="A185" s="19"/>
     </row>
     <row r="186" spans="1:1">
-      <c r="A186" s="20"/>
+      <c r="A186" s="19"/>
     </row>
     <row r="187" spans="1:1">
-      <c r="A187" s="20"/>
+      <c r="A187" s="19"/>
     </row>
     <row r="188" spans="1:1">
-      <c r="A188" s="20"/>
+      <c r="A188" s="19"/>
     </row>
     <row r="189" spans="1:1">
-      <c r="A189" s="20"/>
+      <c r="A189" s="19"/>
     </row>
     <row r="190" spans="1:1">
-      <c r="A190" s="20"/>
+      <c r="A190" s="19"/>
     </row>
     <row r="191" spans="1:1">
-      <c r="A191" s="20"/>
+      <c r="A191" s="19"/>
     </row>
     <row r="192" spans="1:1">
-      <c r="A192" s="20"/>
+      <c r="A192" s="19"/>
     </row>
     <row r="193" spans="1:1">
-      <c r="A193" s="20"/>
+      <c r="A193" s="19"/>
     </row>
     <row r="194" spans="1:1">
-      <c r="A194" s="20"/>
+      <c r="A194" s="19"/>
     </row>
     <row r="195" spans="1:1">
-      <c r="A195" s="20"/>
+      <c r="A195" s="19"/>
     </row>
     <row r="196" spans="1:1">
-      <c r="A196" s="20"/>
+      <c r="A196" s="19"/>
     </row>
     <row r="197" spans="1:1">
-      <c r="A197" s="20"/>
+      <c r="A197" s="19"/>
     </row>
     <row r="198" spans="1:1">
-      <c r="A198" s="20"/>
+      <c r="A198" s="19"/>
     </row>
     <row r="199" spans="1:1">
-      <c r="A199" s="20"/>
+      <c r="A199" s="19"/>
     </row>
     <row r="200" spans="1:1">
-      <c r="A200" s="20"/>
+      <c r="A200" s="19"/>
     </row>
     <row r="201" spans="1:1">
-      <c r="A201" s="20"/>
+      <c r="A201" s="19"/>
     </row>
     <row r="202" spans="1:1">
-      <c r="A202" s="20"/>
+      <c r="A202" s="19"/>
     </row>
     <row r="203" spans="1:1">
-      <c r="A203" s="20"/>
+      <c r="A203" s="19"/>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="20"/>
+      <c r="A204" s="19"/>
     </row>
     <row r="205" spans="1:1">
-      <c r="A205" s="20"/>
+      <c r="A205" s="19"/>
     </row>
     <row r="206" spans="1:1">
-      <c r="A206" s="20"/>
+      <c r="A206" s="19"/>
     </row>
     <row r="207" spans="1:1">
-      <c r="A207" s="20"/>
+      <c r="A207" s="19"/>
     </row>
     <row r="208" spans="1:1">
-      <c r="A208" s="20"/>
+      <c r="A208" s="19"/>
     </row>
     <row r="209" spans="1:1">
-      <c r="A209" s="20"/>
+      <c r="A209" s="19"/>
     </row>
     <row r="210" spans="1:1">
-      <c r="A210" s="20"/>
+      <c r="A210" s="19"/>
     </row>
     <row r="211" spans="1:1">
-      <c r="A211" s="20"/>
+      <c r="A211" s="19"/>
     </row>
     <row r="212" spans="1:1">
-      <c r="A212" s="20"/>
+      <c r="A212" s="19"/>
     </row>
     <row r="213" spans="1:1">
-      <c r="A213" s="20"/>
+      <c r="A213" s="19"/>
     </row>
     <row r="214" spans="1:1">
-      <c r="A214" s="20"/>
+      <c r="A214" s="19"/>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="20"/>
+      <c r="A215" s="19"/>
     </row>
     <row r="216" spans="1:1">
-      <c r="A216" s="20"/>
+      <c r="A216" s="19"/>
     </row>
     <row r="217" spans="1:1">
-      <c r="A217" s="20"/>
+      <c r="A217" s="19"/>
     </row>
     <row r="218" spans="1:1">
-      <c r="A218" s="20"/>
+      <c r="A218" s="19"/>
     </row>
     <row r="219" spans="1:1">
-      <c r="A219" s="20"/>
+      <c r="A219" s="19"/>
     </row>
     <row r="220" spans="1:1">
-      <c r="A220" s="20"/>
+      <c r="A220" s="19"/>
     </row>
     <row r="221" spans="1:1">
-      <c r="A221" s="20"/>
+      <c r="A221" s="19"/>
     </row>
     <row r="222" spans="1:1">
-      <c r="A222" s="20"/>
+      <c r="A222" s="19"/>
     </row>
     <row r="223" spans="1:1">
-      <c r="A223" s="20"/>
+      <c r="A223" s="19"/>
     </row>
     <row r="224" spans="1:1">
-      <c r="A224" s="20"/>
+      <c r="A224" s="19"/>
     </row>
     <row r="225" spans="1:1">
-      <c r="A225" s="20"/>
+      <c r="A225" s="19"/>
     </row>
     <row r="226" spans="1:1">
-      <c r="A226" s="20"/>
+      <c r="A226" s="19"/>
     </row>
     <row r="227" spans="1:1">
-      <c r="A227" s="20"/>
+      <c r="A227" s="19"/>
     </row>
     <row r="228" spans="1:1">
-      <c r="A228" s="20"/>
+      <c r="A228" s="19"/>
     </row>
     <row r="229" spans="1:1">
-      <c r="A229" s="20"/>
+      <c r="A229" s="19"/>
     </row>
     <row r="230" spans="1:1">
-      <c r="A230" s="20"/>
+      <c r="A230" s="19"/>
     </row>
     <row r="231" spans="1:1">
-      <c r="A231" s="20"/>
+      <c r="A231" s="19"/>
     </row>
     <row r="232" spans="1:1">
-      <c r="A232" s="20"/>
+      <c r="A232" s="19"/>
     </row>
     <row r="233" spans="1:1">
-      <c r="A233" s="20"/>
+      <c r="A233" s="19"/>
     </row>
     <row r="234" spans="1:1">
-      <c r="A234" s="20"/>
+      <c r="A234" s="19"/>
     </row>
     <row r="235" spans="1:1">
-      <c r="A235" s="20"/>
+      <c r="A235" s="19"/>
     </row>
     <row r="236" spans="1:1">
-      <c r="A236" s="20"/>
+      <c r="A236" s="19"/>
     </row>
     <row r="237" spans="1:1">
-      <c r="A237" s="20"/>
+      <c r="A237" s="19"/>
     </row>
     <row r="238" spans="1:1">
-      <c r="A238" s="20"/>
+      <c r="A238" s="19"/>
     </row>
     <row r="239" spans="1:1">
-      <c r="A239" s="20"/>
+      <c r="A239" s="19"/>
     </row>
     <row r="240" spans="1:1">
-      <c r="A240" s="20"/>
+      <c r="A240" s="19"/>
     </row>
     <row r="241" spans="1:1">
-      <c r="A241" s="20"/>
+      <c r="A241" s="19"/>
     </row>
     <row r="242" spans="1:1">
-      <c r="A242" s="20"/>
+      <c r="A242" s="19"/>
     </row>
     <row r="243" spans="1:1">
-      <c r="A243" s="20"/>
+      <c r="A243" s="19"/>
     </row>
     <row r="244" spans="1:1">
-      <c r="A244" s="20"/>
+      <c r="A244" s="19"/>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="20"/>
+      <c r="A245" s="19"/>
     </row>
     <row r="246" spans="1:1">
-      <c r="A246" s="20"/>
+      <c r="A246" s="19"/>
     </row>
     <row r="247" spans="1:1">
-      <c r="A247" s="20"/>
+      <c r="A247" s="19"/>
     </row>
     <row r="248" spans="1:1">
-      <c r="A248" s="20"/>
+      <c r="A248" s="19"/>
     </row>
     <row r="249" spans="1:1">
-      <c r="A249" s="20"/>
+      <c r="A249" s="19"/>
     </row>
     <row r="250" spans="1:1">
-      <c r="A250" s="20"/>
+      <c r="A250" s="19"/>
     </row>
     <row r="251" spans="1:1">
-      <c r="A251" s="20"/>
+      <c r="A251" s="19"/>
     </row>
     <row r="252" spans="1:1">
-      <c r="A252" s="20"/>
+      <c r="A252" s="19"/>
     </row>
     <row r="253" spans="1:1">
-      <c r="A253" s="20"/>
+      <c r="A253" s="19"/>
     </row>
     <row r="254" spans="1:1">
-      <c r="A254" s="20"/>
+      <c r="A254" s="19"/>
     </row>
     <row r="255" spans="1:1">
-      <c r="A255" s="20"/>
+      <c r="A255" s="19"/>
     </row>
     <row r="256" spans="1:1">
-      <c r="A256" s="20"/>
+      <c r="A256" s="19"/>
     </row>
     <row r="257" spans="1:1">
-      <c r="A257" s="20"/>
+      <c r="A257" s="19"/>
     </row>
     <row r="258" spans="1:1">
-      <c r="A258" s="20"/>
+      <c r="A258" s="19"/>
     </row>
     <row r="259" spans="1:1">
-      <c r="A259" s="20"/>
+      <c r="A259" s="19"/>
     </row>
     <row r="260" spans="1:1">
-      <c r="A260" s="20"/>
+      <c r="A260" s="19"/>
     </row>
     <row r="261" spans="1:1">
-      <c r="A261" s="20"/>
+      <c r="A261" s="19"/>
     </row>
     <row r="262" spans="1:1">
-      <c r="A262" s="20"/>
+      <c r="A262" s="19"/>
     </row>
     <row r="263" spans="1:1">
-      <c r="A263" s="20"/>
+      <c r="A263" s="19"/>
     </row>
     <row r="264" spans="1:1">
-      <c r="A264" s="20"/>
+      <c r="A264" s="19"/>
     </row>
     <row r="265" spans="1:1">
-      <c r="A265" s="20"/>
+      <c r="A265" s="19"/>
     </row>
     <row r="266" spans="1:1">
-      <c r="A266" s="20"/>
+      <c r="A266" s="19"/>
     </row>
     <row r="267" spans="1:1">
-      <c r="A267" s="20"/>
+      <c r="A267" s="19"/>
     </row>
     <row r="268" spans="1:1">
-      <c r="A268" s="20"/>
+      <c r="A268" s="19"/>
     </row>
     <row r="269" spans="1:1">
-      <c r="A269" s="20"/>
+      <c r="A269" s="19"/>
     </row>
     <row r="270" spans="1:1">
-      <c r="A270" s="20"/>
+      <c r="A270" s="19"/>
     </row>
     <row r="271" spans="1:1">
-      <c r="A271" s="20"/>
+      <c r="A271" s="19"/>
     </row>
     <row r="272" spans="1:1">
-      <c r="A272" s="20"/>
+      <c r="A272" s="19"/>
     </row>
     <row r="273" spans="1:1">
-      <c r="A273" s="20"/>
+      <c r="A273" s="19"/>
     </row>
     <row r="274" spans="1:1">
-      <c r="A274" s="20"/>
+      <c r="A274" s="19"/>
     </row>
     <row r="275" spans="1:1">
-      <c r="A275" s="20"/>
+      <c r="A275" s="19"/>
     </row>
     <row r="276" spans="1:1">
-      <c r="A276" s="20"/>
+      <c r="A276" s="19"/>
     </row>
     <row r="277" spans="1:1">
-      <c r="A277" s="20"/>
+      <c r="A277" s="19"/>
     </row>
     <row r="278" spans="1:1">
-      <c r="A278" s="20"/>
+      <c r="A278" s="19"/>
     </row>
     <row r="279" spans="1:1">
-      <c r="A279" s="20"/>
+      <c r="A279" s="19"/>
     </row>
     <row r="280" spans="1:1">
-      <c r="A280" s="20"/>
+      <c r="A280" s="19"/>
     </row>
     <row r="281" spans="1:1">
-      <c r="A281" s="20"/>
+      <c r="A281" s="19"/>
     </row>
     <row r="282" spans="1:1">
-      <c r="A282" s="20"/>
+      <c r="A282" s="19"/>
     </row>
     <row r="283" spans="1:1">
-      <c r="A283" s="20"/>
+      <c r="A283" s="19"/>
     </row>
     <row r="284" spans="1:1">
-      <c r="A284" s="20"/>
+      <c r="A284" s="19"/>
     </row>
     <row r="285" spans="1:1">
-      <c r="A285" s="20"/>
+      <c r="A285" s="19"/>
     </row>
     <row r="286" spans="1:1">
-      <c r="A286" s="20"/>
+      <c r="A286" s="19"/>
     </row>
     <row r="287" spans="1:1">
-      <c r="A287" s="20"/>
+      <c r="A287" s="19"/>
     </row>
     <row r="288" spans="1:1">
-      <c r="A288" s="20"/>
+      <c r="A288" s="19"/>
     </row>
     <row r="289" spans="1:1">
-      <c r="A289" s="20"/>
+      <c r="A289" s="19"/>
     </row>
     <row r="290" spans="1:1">
-      <c r="A290" s="20"/>
+      <c r="A290" s="19"/>
     </row>
     <row r="291" spans="1:1">
-      <c r="A291" s="20"/>
+      <c r="A291" s="19"/>
     </row>
     <row r="292" spans="1:1">
-      <c r="A292" s="20"/>
+      <c r="A292" s="19"/>
     </row>
     <row r="293" spans="1:1">
-      <c r="A293" s="20"/>
+      <c r="A293" s="19"/>
     </row>
     <row r="294" spans="1:1">
-      <c r="A294" s="20"/>
+      <c r="A294" s="19"/>
     </row>
     <row r="295" spans="1:1">
-      <c r="A295" s="20"/>
+      <c r="A295" s="19"/>
     </row>
     <row r="296" spans="1:1">
-      <c r="A296" s="20"/>
+      <c r="A296" s="19"/>
     </row>
     <row r="297" spans="1:1">
-      <c r="A297" s="20"/>
+      <c r="A297" s="19"/>
     </row>
     <row r="298" spans="1:1">
-      <c r="A298" s="20"/>
+      <c r="A298" s="19"/>
     </row>
     <row r="299" spans="1:1">
-      <c r="A299" s="20"/>
+      <c r="A299" s="19"/>
     </row>
     <row r="300" spans="1:1">
-      <c r="A300" s="20"/>
+      <c r="A300" s="19"/>
     </row>
     <row r="301" spans="1:1">
-      <c r="A301" s="20"/>
+      <c r="A301" s="19"/>
     </row>
     <row r="302" spans="1:1">
-      <c r="A302" s="20"/>
+      <c r="A302" s="19"/>
     </row>
     <row r="303" spans="1:1">
-      <c r="A303" s="20"/>
+      <c r="A303" s="19"/>
     </row>
     <row r="304" spans="1:1">
-      <c r="A304" s="20"/>
+      <c r="A304" s="19"/>
     </row>
     <row r="305" spans="1:1">
-      <c r="A305" s="20"/>
+      <c r="A305" s="19"/>
     </row>
     <row r="306" spans="1:1">
-      <c r="A306" s="20"/>
+      <c r="A306" s="19"/>
     </row>
     <row r="307" spans="1:1">
-      <c r="A307" s="20"/>
+      <c r="A307" s="19"/>
     </row>
     <row r="308" spans="1:1">
-      <c r="A308" s="20"/>
+      <c r="A308" s="19"/>
     </row>
     <row r="309" spans="1:1">
-      <c r="A309" s="20"/>
+      <c r="A309" s="19"/>
     </row>
     <row r="310" spans="1:1">
-      <c r="A310" s="20"/>
+      <c r="A310" s="19"/>
     </row>
     <row r="311" spans="1:1">
-      <c r="A311" s="20"/>
+      <c r="A311" s="19"/>
     </row>
     <row r="312" spans="1:1">
-      <c r="A312" s="20"/>
+      <c r="A312" s="19"/>
     </row>
     <row r="313" spans="1:1">
-      <c r="A313" s="20"/>
+      <c r="A313" s="19"/>
     </row>
     <row r="314" spans="1:1">
-      <c r="A314" s="20"/>
+      <c r="A314" s="19"/>
     </row>
     <row r="315" spans="1:1">
-      <c r="A315" s="20"/>
+      <c r="A315" s="19"/>
     </row>
     <row r="316" spans="1:1">
-      <c r="A316" s="20"/>
+      <c r="A316" s="19"/>
     </row>
     <row r="317" spans="1:1">
-      <c r="A317" s="20"/>
+      <c r="A317" s="19"/>
     </row>
     <row r="318" spans="1:1">
-      <c r="A318" s="20"/>
+      <c r="A318" s="19"/>
     </row>
     <row r="319" spans="1:1">
-      <c r="A319" s="20"/>
+      <c r="A319" s="19"/>
     </row>
     <row r="320" spans="1:1">
-      <c r="A320" s="20"/>
+      <c r="A320" s="19"/>
     </row>
     <row r="321" spans="1:1">
-      <c r="A321" s="20"/>
+      <c r="A321" s="19"/>
     </row>
     <row r="322" spans="1:1">
-      <c r="A322" s="20"/>
+      <c r="A322" s="19"/>
     </row>
     <row r="323" spans="1:1">
-      <c r="A323" s="20"/>
+      <c r="A323" s="19"/>
     </row>
     <row r="324" spans="1:1">
-      <c r="A324" s="20"/>
+      <c r="A324" s="19"/>
     </row>
     <row r="325" spans="1:1">
-      <c r="A325" s="20"/>
+      <c r="A325" s="19"/>
     </row>
     <row r="326" spans="1:1">
-      <c r="A326" s="20"/>
+      <c r="A326" s="19"/>
     </row>
     <row r="327" spans="1:1">
-      <c r="A327" s="20"/>
+      <c r="A327" s="19"/>
     </row>
     <row r="328" spans="1:1">
-      <c r="A328" s="20"/>
+      <c r="A328" s="19"/>
     </row>
     <row r="329" spans="1:1">
-      <c r="A329" s="20"/>
+      <c r="A329" s="19"/>
     </row>
     <row r="330" spans="1:1">
-      <c r="A330" s="20"/>
+      <c r="A330" s="19"/>
     </row>
     <row r="331" spans="1:1">
-      <c r="A331" s="20"/>
+      <c r="A331" s="19"/>
     </row>
     <row r="332" spans="1:1">
-      <c r="A332" s="20"/>
+      <c r="A332" s="19"/>
     </row>
     <row r="333" spans="1:1">
-      <c r="A333" s="20"/>
+      <c r="A333" s="19"/>
     </row>
     <row r="334" spans="1:1">
-      <c r="A334" s="20"/>
+      <c r="A334" s="19"/>
     </row>
     <row r="335" spans="1:1">
-      <c r="A335" s="20"/>
+      <c r="A335" s="19"/>
     </row>
     <row r="336" spans="1:1">
-      <c r="A336" s="20"/>
+      <c r="A336" s="19"/>
     </row>
     <row r="337" spans="1:1">
-      <c r="A337" s="20"/>
+      <c r="A337" s="19"/>
     </row>
     <row r="338" spans="1:1">
-      <c r="A338" s="20"/>
+      <c r="A338" s="19"/>
     </row>
     <row r="339" spans="1:1">
-      <c r="A339" s="20"/>
+      <c r="A339" s="19"/>
     </row>
     <row r="340" spans="1:1">
-      <c r="A340" s="20"/>
+      <c r="A340" s="19"/>
     </row>
     <row r="341" spans="1:1">
-      <c r="A341" s="20"/>
+      <c r="A341" s="19"/>
     </row>
     <row r="342" spans="1:1">
-      <c r="A342" s="20"/>
+      <c r="A342" s="19"/>
     </row>
     <row r="343" spans="1:1">
-      <c r="A343" s="20"/>
+      <c r="A343" s="19"/>
     </row>
     <row r="344" spans="1:1">
-      <c r="A344" s="20"/>
+      <c r="A344" s="19"/>
     </row>
     <row r="345" spans="1:1">
-      <c r="A345" s="20"/>
+      <c r="A345" s="19"/>
     </row>
     <row r="346" spans="1:1">
-      <c r="A346" s="20"/>
+      <c r="A346" s="19"/>
     </row>
     <row r="347" spans="1:1">
-      <c r="A347" s="20"/>
+      <c r="A347" s="19"/>
     </row>
     <row r="348" spans="1:1">
-      <c r="A348" s="20"/>
+      <c r="A348" s="19"/>
     </row>
     <row r="349" spans="1:1">
-      <c r="A349" s="20"/>
+      <c r="A349" s="19"/>
     </row>
     <row r="350" spans="1:1">
-      <c r="A350" s="20"/>
+      <c r="A350" s="19"/>
     </row>
     <row r="351" spans="1:1">
-      <c r="A351" s="20"/>
+      <c r="A351" s="19"/>
     </row>
     <row r="352" spans="1:1">
-      <c r="A352" s="20"/>
+      <c r="A352" s="19"/>
     </row>
     <row r="353" spans="1:1">
-      <c r="A353" s="20"/>
+      <c r="A353" s="19"/>
     </row>
     <row r="354" spans="1:1">
-      <c r="A354" s="20"/>
+      <c r="A354" s="19"/>
     </row>
     <row r="355" spans="1:1">
-      <c r="A355" s="20"/>
+      <c r="A355" s="19"/>
     </row>
     <row r="356" spans="1:1">
-      <c r="A356" s="20"/>
+      <c r="A356" s="19"/>
     </row>
     <row r="357" spans="1:1">
-      <c r="A357" s="20"/>
+      <c r="A357" s="19"/>
     </row>
     <row r="358" spans="1:1">
-      <c r="A358" s="20"/>
+      <c r="A358" s="19"/>
     </row>
     <row r="359" spans="1:1">
-      <c r="A359" s="20"/>
+      <c r="A359" s="19"/>
     </row>
     <row r="360" spans="1:1">
-      <c r="A360" s="20"/>
+      <c r="A360" s="19"/>
     </row>
     <row r="361" spans="1:1">
-      <c r="A361" s="20"/>
+      <c r="A361" s="19"/>
     </row>
     <row r="362" spans="1:1">
-      <c r="A362" s="20"/>
+      <c r="A362" s="19"/>
     </row>
     <row r="363" spans="1:1">
-      <c r="A363" s="20"/>
+      <c r="A363" s="19"/>
     </row>
     <row r="364" spans="1:1">
-      <c r="A364" s="20"/>
+      <c r="A364" s="19"/>
     </row>
     <row r="365" spans="1:1">
-      <c r="A365" s="20"/>
+      <c r="A365" s="19"/>
     </row>
     <row r="366" spans="1:1">
-      <c r="A366" s="20"/>
+      <c r="A366" s="19"/>
     </row>
     <row r="367" spans="1:1">
-      <c r="A367" s="20"/>
+      <c r="A367" s="19"/>
     </row>
     <row r="368" spans="1:1">
-      <c r="A368" s="20"/>
+      <c r="A368" s="19"/>
     </row>
     <row r="369" spans="1:1">
-      <c r="A369" s="20"/>
+      <c r="A369" s="19"/>
     </row>
     <row r="370" spans="1:1">
-      <c r="A370" s="20"/>
+      <c r="A370" s="19"/>
     </row>
     <row r="371" spans="1:1">
-      <c r="A371" s="20"/>
+      <c r="A371" s="19"/>
     </row>
     <row r="372" spans="1:1">
-      <c r="A372" s="20"/>
+      <c r="A372" s="19"/>
     </row>
     <row r="373" spans="1:1">
-      <c r="A373" s="20"/>
+      <c r="A373" s="19"/>
     </row>
     <row r="374" spans="1:1">
-      <c r="A374" s="20"/>
+      <c r="A374" s="19"/>
     </row>
     <row r="375" spans="1:1">
-      <c r="A375" s="20"/>
+      <c r="A375" s="19"/>
     </row>
     <row r="376" spans="1:1">
-      <c r="A376" s="20"/>
+      <c r="A376" s="19"/>
     </row>
     <row r="377" spans="1:1">
-      <c r="A377" s="20"/>
+      <c r="A377" s="19"/>
     </row>
     <row r="378" spans="1:1">
-      <c r="A378" s="20"/>
+      <c r="A378" s="19"/>
     </row>
     <row r="379" spans="1:1">
-      <c r="A379" s="20"/>
+      <c r="A379" s="19"/>
     </row>
     <row r="380" spans="1:1">
-      <c r="A380" s="20"/>
+      <c r="A380" s="19"/>
     </row>
     <row r="381" spans="1:1">
-      <c r="A381" s="20"/>
+      <c r="A381" s="19"/>
     </row>
     <row r="382" spans="1:1">
-      <c r="A382" s="20"/>
+      <c r="A382" s="19"/>
     </row>
     <row r="383" spans="1:1">
-      <c r="A383" s="20"/>
+      <c r="A383" s="19"/>
     </row>
     <row r="384" spans="1:1">
-      <c r="A384" s="20"/>
+      <c r="A384" s="19"/>
     </row>
     <row r="385" spans="1:1">
-      <c r="A385" s="20"/>
+      <c r="A385" s="19"/>
     </row>
     <row r="386" spans="1:1">
-      <c r="A386" s="20"/>
+      <c r="A386" s="19"/>
     </row>
     <row r="387" spans="1:1">
-      <c r="A387" s="20"/>
+      <c r="A387" s="19"/>
     </row>
     <row r="388" spans="1:1">
-      <c r="A388" s="20"/>
+      <c r="A388" s="19"/>
     </row>
     <row r="389" spans="1:1">
-      <c r="A389" s="20"/>
+      <c r="A389" s="19"/>
     </row>
     <row r="390" spans="1:1">
-      <c r="A390" s="20"/>
+      <c r="A390" s="19"/>
     </row>
     <row r="391" spans="1:1">
-      <c r="A391" s="20"/>
+      <c r="A391" s="19"/>
     </row>
     <row r="392" spans="1:1">
-      <c r="A392" s="20"/>
+      <c r="A392" s="19"/>
     </row>
     <row r="393" spans="1:1">
-      <c r="A393" s="20"/>
+      <c r="A393" s="19"/>
     </row>
     <row r="394" spans="1:1">
-      <c r="A394" s="20"/>
+      <c r="A394" s="19"/>
     </row>
     <row r="395" spans="1:1">
-      <c r="A395" s="20"/>
+      <c r="A395" s="19"/>
     </row>
     <row r="396" spans="1:1">
-      <c r="A396" s="20"/>
+      <c r="A396" s="19"/>
     </row>
     <row r="397" spans="1:1">
-      <c r="A397" s="20"/>
+      <c r="A397" s="19"/>
     </row>
     <row r="398" spans="1:1">
-      <c r="A398" s="20"/>
+      <c r="A398" s="19"/>
     </row>
     <row r="399" spans="1:1">
-      <c r="A399" s="20"/>
+      <c r="A399" s="19"/>
     </row>
     <row r="400" spans="1:1">
-      <c r="A400" s="20"/>
+      <c r="A400" s="19"/>
     </row>
     <row r="401" spans="1:1">
-      <c r="A401" s="20"/>
+      <c r="A401" s="19"/>
     </row>
     <row r="402" spans="1:1">
-      <c r="A402" s="20"/>
+      <c r="A402" s="19"/>
     </row>
     <row r="403" spans="1:1">
-      <c r="A403" s="20"/>
+      <c r="A403" s="19"/>
     </row>
     <row r="404" spans="1:1">
-      <c r="A404" s="20"/>
+      <c r="A404" s="19"/>
     </row>
     <row r="405" spans="1:1">
-      <c r="A405" s="20"/>
+      <c r="A405" s="19"/>
     </row>
     <row r="406" spans="1:1">
-      <c r="A406" s="20"/>
+      <c r="A406" s="19"/>
     </row>
     <row r="407" spans="1:1">
-      <c r="A407" s="20"/>
+      <c r="A407" s="19"/>
     </row>
     <row r="408" spans="1:1">
-      <c r="A408" s="20"/>
+      <c r="A408" s="19"/>
     </row>
     <row r="409" spans="1:1">
-      <c r="A409" s="20"/>
+      <c r="A409" s="19"/>
     </row>
     <row r="410" spans="1:1">
-      <c r="A410" s="20"/>
+      <c r="A410" s="19"/>
     </row>
     <row r="411" spans="1:1">
-      <c r="A411" s="20"/>
+      <c r="A411" s="19"/>
     </row>
     <row r="412" spans="1:1">
-      <c r="A412" s="20"/>
+      <c r="A412" s="19"/>
     </row>
     <row r="413" spans="1:1">
-      <c r="A413" s="20"/>
+      <c r="A413" s="19"/>
     </row>
     <row r="414" spans="1:1">
-      <c r="A414" s="20"/>
+      <c r="A414" s="19"/>
     </row>
     <row r="415" spans="1:1">
-      <c r="A415" s="20"/>
+      <c r="A415" s="19"/>
     </row>
     <row r="416" spans="1:1">
-      <c r="A416" s="20"/>
+      <c r="A416" s="19"/>
     </row>
     <row r="417" spans="1:1">
-      <c r="A417" s="20"/>
+      <c r="A417" s="19"/>
     </row>
     <row r="418" spans="1:1">
-      <c r="A418" s="20"/>
+      <c r="A418" s="19"/>
     </row>
     <row r="419" spans="1:1">
-      <c r="A419" s="20"/>
+      <c r="A419" s="19"/>
     </row>
     <row r="420" spans="1:1">
-      <c r="A420" s="20"/>
+      <c r="A420" s="19"/>
     </row>
     <row r="421" spans="1:1">
-      <c r="A421" s="20"/>
+      <c r="A421" s="19"/>
     </row>
     <row r="422" spans="1:1">
-      <c r="A422" s="20"/>
+      <c r="A422" s="19"/>
     </row>
     <row r="423" spans="1:1">
-      <c r="A423" s="20"/>
+      <c r="A423" s="19"/>
     </row>
     <row r="424" spans="1:1">
-      <c r="A424" s="20"/>
+      <c r="A424" s="19"/>
     </row>
     <row r="425" spans="1:1">
-      <c r="A425" s="20"/>
+      <c r="A425" s="19"/>
     </row>
     <row r="426" spans="1:1">
-      <c r="A426" s="20"/>
+      <c r="A426" s="19"/>
     </row>
     <row r="427" spans="1:1">
-      <c r="A427" s="20"/>
+      <c r="A427" s="19"/>
     </row>
     <row r="428" spans="1:1">
-      <c r="A428" s="20"/>
+      <c r="A428" s="19"/>
     </row>
     <row r="429" spans="1:1">
-      <c r="A429" s="20"/>
+      <c r="A429" s="19"/>
     </row>
     <row r="430" spans="1:1">
-      <c r="A430" s="20"/>
+      <c r="A430" s="19"/>
     </row>
     <row r="431" spans="1:1">
-      <c r="A431" s="20"/>
+      <c r="A431" s="19"/>
     </row>
     <row r="432" spans="1:1">
-      <c r="A432" s="20"/>
+      <c r="A432" s="19"/>
     </row>
     <row r="433" spans="1:1">
-      <c r="A433" s="20"/>
+      <c r="A433" s="19"/>
     </row>
     <row r="434" spans="1:1">
-      <c r="A434" s="20"/>
+      <c r="A434" s="19"/>
     </row>
     <row r="435" spans="1:1">
-      <c r="A435" s="20"/>
+      <c r="A435" s="19"/>
     </row>
     <row r="436" spans="1:1">
-      <c r="A436" s="20"/>
+      <c r="A436" s="19"/>
     </row>
     <row r="437" spans="1:1">
-      <c r="A437" s="20"/>
+      <c r="A437" s="19"/>
     </row>
     <row r="438" spans="1:1">
-      <c r="A438" s="20"/>
+      <c r="A438" s="19"/>
     </row>
     <row r="439" spans="1:1">
-      <c r="A439" s="20"/>
+      <c r="A439" s="19"/>
     </row>
     <row r="440" spans="1:1">
-      <c r="A440" s="20"/>
+      <c r="A440" s="19"/>
     </row>
     <row r="441" spans="1:1">
-      <c r="A441" s="20"/>
+      <c r="A441" s="19"/>
     </row>
     <row r="442" spans="1:1">
-      <c r="A442" s="20"/>
+      <c r="A442" s="19"/>
     </row>
     <row r="443" spans="1:1">
-      <c r="A443" s="20"/>
+      <c r="A443" s="19"/>
     </row>
     <row r="444" spans="1:1">
-      <c r="A444" s="20"/>
+      <c r="A444" s="19"/>
     </row>
     <row r="445" spans="1:1">
-      <c r="A445" s="20"/>
+      <c r="A445" s="19"/>
     </row>
     <row r="446" spans="1:1">
-      <c r="A446" s="20"/>
+      <c r="A446" s="19"/>
     </row>
     <row r="447" spans="1:1">
-      <c r="A447" s="20"/>
+      <c r="A447" s="19"/>
     </row>
     <row r="448" spans="1:1">
-      <c r="A448" s="20"/>
+      <c r="A448" s="19"/>
     </row>
     <row r="449" spans="1:1">
-      <c r="A449" s="20"/>
+      <c r="A449" s="19"/>
     </row>
     <row r="450" spans="1:1">
-      <c r="A450" s="20"/>
+      <c r="A450" s="19"/>
     </row>
     <row r="451" spans="1:1">
-      <c r="A451" s="20"/>
+      <c r="A451" s="19"/>
     </row>
     <row r="452" spans="1:1">
-      <c r="A452" s="20"/>
+      <c r="A452" s="19"/>
     </row>
     <row r="453" spans="1:1">
-      <c r="A453" s="20"/>
+      <c r="A453" s="19"/>
     </row>
     <row r="454" spans="1:1">
-      <c r="A454" s="20"/>
+      <c r="A454" s="19"/>
     </row>
     <row r="455" spans="1:1">
-      <c r="A455" s="20"/>
+      <c r="A455" s="19"/>
     </row>
     <row r="456" spans="1:1">
-      <c r="A456" s="20"/>
+      <c r="A456" s="19"/>
     </row>
     <row r="457" spans="1:1">
-      <c r="A457" s="20"/>
+      <c r="A457" s="19"/>
     </row>
     <row r="458" spans="1:1">
-      <c r="A458" s="20"/>
+      <c r="A458" s="19"/>
     </row>
     <row r="459" spans="1:1">
-      <c r="A459" s="20"/>
+      <c r="A459" s="19"/>
     </row>
     <row r="460" spans="1:1">
-      <c r="A460" s="20"/>
+      <c r="A460" s="19"/>
     </row>
     <row r="461" spans="1:1">
-      <c r="A461" s="20"/>
+      <c r="A461" s="19"/>
     </row>
     <row r="462" spans="1:1">
-      <c r="A462" s="20"/>
+      <c r="A462" s="19"/>
     </row>
     <row r="463" spans="1:1">
-      <c r="A463" s="20"/>
+      <c r="A463" s="19"/>
     </row>
     <row r="464" spans="1:1">
-      <c r="A464" s="20"/>
+      <c r="A464" s="19"/>
     </row>
     <row r="465" spans="1:1">
-      <c r="A465" s="20"/>
+      <c r="A465" s="19"/>
     </row>
     <row r="466" spans="1:1">
-      <c r="A466" s="20"/>
+      <c r="A466" s="19"/>
     </row>
     <row r="467" spans="1:1">
-      <c r="A467" s="20"/>
+      <c r="A467" s="19"/>
     </row>
     <row r="468" spans="1:1">
-      <c r="A468" s="20"/>
+      <c r="A468" s="19"/>
     </row>
     <row r="469" spans="1:1">
-      <c r="A469" s="20"/>
+      <c r="A469" s="19"/>
     </row>
     <row r="470" spans="1:1">
-      <c r="A470" s="20"/>
+      <c r="A470" s="19"/>
     </row>
     <row r="471" spans="1:1">
-      <c r="A471" s="20"/>
+      <c r="A471" s="19"/>
     </row>
     <row r="472" spans="1:1">
-      <c r="A472" s="20"/>
+      <c r="A472" s="19"/>
     </row>
     <row r="473" spans="1:1">
-      <c r="A473" s="20"/>
+      <c r="A473" s="19"/>
     </row>
     <row r="474" spans="1:1">
-      <c r="A474" s="20"/>
+      <c r="A474" s="19"/>
     </row>
     <row r="475" spans="1:1">
-      <c r="A475" s="20"/>
+      <c r="A475" s="19"/>
     </row>
     <row r="476" spans="1:1">
-      <c r="A476" s="20"/>
+      <c r="A476" s="19"/>
     </row>
     <row r="477" spans="1:1">
-      <c r="A477" s="20"/>
+      <c r="A477" s="19"/>
     </row>
     <row r="478" spans="1:1">
-      <c r="A478" s="20"/>
+      <c r="A478" s="19"/>
     </row>
     <row r="479" spans="1:1">
-      <c r="A479" s="20"/>
+      <c r="A479" s="19"/>
     </row>
     <row r="480" spans="1:1">
-      <c r="A480" s="20"/>
+      <c r="A480" s="19"/>
     </row>
     <row r="481" spans="1:1">
-      <c r="A481" s="20"/>
+      <c r="A481" s="19"/>
     </row>
     <row r="482" spans="1:1">
-      <c r="A482" s="20"/>
+      <c r="A482" s="19"/>
     </row>
     <row r="483" spans="1:1">
-      <c r="A483" s="20"/>
+      <c r="A483" s="19"/>
     </row>
     <row r="484" spans="1:1">
-      <c r="A484" s="20"/>
+      <c r="A484" s="19"/>
     </row>
     <row r="485" spans="1:1">
-      <c r="A485" s="20"/>
+      <c r="A485" s="19"/>
     </row>
     <row r="486" spans="1:1">
-      <c r="A486" s="20"/>
+      <c r="A486" s="19"/>
     </row>
     <row r="487" spans="1:1">
-      <c r="A487" s="20"/>
+      <c r="A487" s="19"/>
     </row>
     <row r="488" spans="1:1">
-      <c r="A488" s="20"/>
+      <c r="A488" s="19"/>
     </row>
     <row r="489" spans="1:1">
-      <c r="A489" s="20"/>
+      <c r="A489" s="19"/>
     </row>
     <row r="490" spans="1:1">
-      <c r="A490" s="20"/>
+      <c r="A490" s="19"/>
     </row>
     <row r="491" spans="1:1">
-      <c r="A491" s="20"/>
+      <c r="A491" s="19"/>
     </row>
     <row r="492" spans="1:1">
-      <c r="A492" s="20"/>
+      <c r="A492" s="19"/>
     </row>
     <row r="493" spans="1:1">
-      <c r="A493" s="20"/>
+      <c r="A493" s="19"/>
     </row>
     <row r="494" spans="1:1">
-      <c r="A494" s="20"/>
+      <c r="A494" s="19"/>
     </row>
     <row r="495" spans="1:1">
-      <c r="A495" s="20"/>
+      <c r="A495" s="19"/>
     </row>
     <row r="496" spans="1:1">
-      <c r="A496" s="20"/>
+      <c r="A496" s="19"/>
     </row>
     <row r="497" spans="1:1">
-      <c r="A497" s="20"/>
+      <c r="A497" s="19"/>
     </row>
     <row r="498" spans="1:1">
-      <c r="A498" s="20"/>
+      <c r="A498" s="19"/>
     </row>
     <row r="499" spans="1:1">
-      <c r="A499" s="20"/>
+      <c r="A499" s="19"/>
     </row>
     <row r="500" spans="1:1">
-      <c r="A500" s="20"/>
+      <c r="A500" s="19"/>
     </row>
     <row r="501" spans="1:1">
-      <c r="A501" s="20"/>
+      <c r="A501" s="19"/>
     </row>
     <row r="502" spans="1:1">
-      <c r="A502" s="20"/>
+      <c r="A502" s="19"/>
     </row>
     <row r="503" spans="1:1">
-      <c r="A503" s="20"/>
+      <c r="A503" s="19"/>
     </row>
     <row r="504" spans="1:1">
-      <c r="A504" s="20"/>
+      <c r="A504" s="19"/>
     </row>
     <row r="505" spans="1:1">
-      <c r="A505" s="20"/>
+      <c r="A505" s="19"/>
     </row>
     <row r="506" spans="1:1">
-      <c r="A506" s="20"/>
+      <c r="A506" s="19"/>
     </row>
     <row r="507" spans="1:1">
-      <c r="A507" s="20"/>
+      <c r="A507" s="19"/>
     </row>
     <row r="508" spans="1:1">
-      <c r="A508" s="20"/>
+      <c r="A508" s="19"/>
     </row>
     <row r="509" spans="1:1">
-      <c r="A509" s="20"/>
+      <c r="A509" s="19"/>
     </row>
     <row r="510" spans="1:1">
-      <c r="A510" s="20"/>
+      <c r="A510" s="19"/>
     </row>
     <row r="511" spans="1:1">
-      <c r="A511" s="20"/>
+      <c r="A511" s="19"/>
     </row>
     <row r="512" spans="1:1">
-      <c r="A512" s="20"/>
+      <c r="A512" s="19"/>
     </row>
     <row r="513" spans="1:1">
-      <c r="A513" s="20"/>
+      <c r="A513" s="19"/>
     </row>
     <row r="514" spans="1:1">
-      <c r="A514" s="20"/>
+      <c r="A514" s="19"/>
     </row>
     <row r="515" spans="1:1">
-      <c r="A515" s="20"/>
+      <c r="A515" s="19"/>
     </row>
     <row r="516" spans="1:1">
-      <c r="A516" s="20"/>
+      <c r="A516" s="19"/>
     </row>
     <row r="517" spans="1:1">
-      <c r="A517" s="20"/>
+      <c r="A517" s="19"/>
     </row>
     <row r="518" spans="1:1">
-      <c r="A518" s="20"/>
+      <c r="A518" s="19"/>
     </row>
     <row r="519" spans="1:1">
-      <c r="A519" s="20"/>
+      <c r="A519" s="19"/>
     </row>
     <row r="520" spans="1:1">
-      <c r="A520" s="20"/>
+      <c r="A520" s="19"/>
     </row>
     <row r="521" spans="1:1">
-      <c r="A521" s="20"/>
+      <c r="A521" s="19"/>
     </row>
     <row r="522" spans="1:1">
-      <c r="A522" s="20"/>
+      <c r="A522" s="19"/>
     </row>
     <row r="523" spans="1:1">
-      <c r="A523" s="20"/>
+      <c r="A523" s="19"/>
     </row>
     <row r="524" spans="1:1">
-      <c r="A524" s="20"/>
+      <c r="A524" s="19"/>
     </row>
     <row r="525" spans="1:1">
-      <c r="A525" s="20"/>
+      <c r="A525" s="19"/>
     </row>
     <row r="526" spans="1:1">
-      <c r="A526" s="20"/>
+      <c r="A526" s="19"/>
     </row>
     <row r="527" spans="1:1">
-      <c r="A527" s="20"/>
+      <c r="A527" s="19"/>
     </row>
     <row r="528" spans="1:1">
-      <c r="A528" s="20"/>
+      <c r="A528" s="19"/>
     </row>
     <row r="529" spans="1:1">
-      <c r="A529" s="20"/>
+      <c r="A529" s="19"/>
     </row>
     <row r="530" spans="1:1">
-      <c r="A530" s="20"/>
+      <c r="A530" s="19"/>
     </row>
     <row r="531" spans="1:1">
-      <c r="A531" s="20"/>
+      <c r="A531" s="19"/>
     </row>
     <row r="532" spans="1:1">
-      <c r="A532" s="20"/>
+      <c r="A532" s="19"/>
     </row>
     <row r="533" spans="1:1">
-      <c r="A533" s="20"/>
+      <c r="A533" s="19"/>
     </row>
     <row r="534" spans="1:1">
-      <c r="A534" s="20"/>
+      <c r="A534" s="19"/>
     </row>
     <row r="535" spans="1:1">
-      <c r="A535" s="20"/>
+      <c r="A535" s="19"/>
     </row>
     <row r="536" spans="1:1">
-      <c r="A536" s="20"/>
+      <c r="A536" s="19"/>
     </row>
     <row r="537" spans="1:1">
-      <c r="A537" s="20"/>
+      <c r="A537" s="19"/>
     </row>
     <row r="538" spans="1:1">
-      <c r="A538" s="20"/>
+      <c r="A538" s="19"/>
     </row>
     <row r="539" spans="1:1">
-      <c r="A539" s="20"/>
+      <c r="A539" s="19"/>
     </row>
     <row r="540" spans="1:1">
-      <c r="A540" s="20"/>
+      <c r="A540" s="19"/>
     </row>
     <row r="541" spans="1:1">
-      <c r="A541" s="20"/>
+      <c r="A541" s="19"/>
     </row>
     <row r="542" spans="1:1">
-      <c r="A542" s="20"/>
+      <c r="A542" s="19"/>
     </row>
     <row r="543" spans="1:1">
-      <c r="A543" s="20"/>
+      <c r="A543" s="19"/>
     </row>
     <row r="544" spans="1:1">
-      <c r="A544" s="20"/>
+      <c r="A544" s="19"/>
     </row>
     <row r="545" spans="1:1">
-      <c r="A545" s="20"/>
+      <c r="A545" s="19"/>
     </row>
     <row r="546" spans="1:1">
-      <c r="A546" s="20"/>
+      <c r="A546" s="19"/>
     </row>
     <row r="547" spans="1:1">
-      <c r="A547" s="20"/>
+      <c r="A547" s="19"/>
     </row>
     <row r="548" spans="1:1">
-      <c r="A548" s="20"/>
+      <c r="A548" s="19"/>
     </row>
     <row r="549" spans="1:1">
-      <c r="A549" s="20"/>
+      <c r="A549" s="19"/>
     </row>
     <row r="550" spans="1:1">
-      <c r="A550" s="20"/>
+      <c r="A550" s="19"/>
     </row>
     <row r="551" spans="1:1">
-      <c r="A551" s="20"/>
+      <c r="A551" s="19"/>
     </row>
     <row r="552" spans="1:1">
-      <c r="A552" s="20"/>
+      <c r="A552" s="19"/>
     </row>
     <row r="553" spans="1:1">
-      <c r="A553" s="20"/>
+      <c r="A553" s="19"/>
     </row>
     <row r="554" spans="1:1">
-      <c r="A554" s="20"/>
+      <c r="A554" s="19"/>
     </row>
     <row r="555" spans="1:1">
-      <c r="A555" s="20"/>
+      <c r="A555" s="19"/>
     </row>
     <row r="556" spans="1:1">
-      <c r="A556" s="20"/>
+      <c r="A556" s="19"/>
     </row>
     <row r="557" spans="1:1">
-      <c r="A557" s="20"/>
+      <c r="A557" s="19"/>
     </row>
     <row r="558" spans="1:1">
-      <c r="A558" s="20"/>
+      <c r="A558" s="19"/>
     </row>
     <row r="559" spans="1:1">
-      <c r="A559" s="20"/>
+      <c r="A559" s="19"/>
     </row>
     <row r="560" spans="1:1">
-      <c r="A560" s="20"/>
+      <c r="A560" s="19"/>
     </row>
     <row r="561" spans="1:1">
-      <c r="A561" s="20"/>
+      <c r="A561" s="19"/>
     </row>
     <row r="562" spans="1:1">
-      <c r="A562" s="20"/>
+      <c r="A562" s="19"/>
     </row>
     <row r="563" spans="1:1">
-      <c r="A563" s="20"/>
+      <c r="A563" s="19"/>
     </row>
     <row r="564" spans="1:1">
-      <c r="A564" s="20"/>
+      <c r="A564" s="19"/>
     </row>
     <row r="565" spans="1:1">
-      <c r="A565" s="20"/>
+      <c r="A565" s="19"/>
     </row>
     <row r="566" spans="1:1">
-      <c r="A566" s="20"/>
+      <c r="A566" s="19"/>
     </row>
     <row r="567" spans="1:1">
-      <c r="A567" s="20"/>
+      <c r="A567" s="19"/>
     </row>
     <row r="568" spans="1:1">
-      <c r="A568" s="20"/>
+      <c r="A568" s="19"/>
     </row>
     <row r="569" spans="1:1">
-      <c r="A569" s="20"/>
+      <c r="A569" s="19"/>
     </row>
     <row r="570" spans="1:1">
-      <c r="A570" s="20"/>
+      <c r="A570" s="19"/>
     </row>
     <row r="571" spans="1:1">
-      <c r="A571" s="20"/>
+      <c r="A571" s="19"/>
     </row>
     <row r="572" spans="1:1">
-      <c r="A572" s="20"/>
+      <c r="A572" s="19"/>
     </row>
     <row r="573" spans="1:1">
-      <c r="A573" s="20"/>
+      <c r="A573" s="19"/>
     </row>
     <row r="574" spans="1:1">
-      <c r="A574" s="20"/>
+      <c r="A574" s="19"/>
     </row>
     <row r="575" spans="1:1">
-      <c r="A575" s="20"/>
+      <c r="A575" s="19"/>
     </row>
     <row r="576" spans="1:1">
-      <c r="A576" s="20"/>
+      <c r="A576" s="19"/>
     </row>
     <row r="577" spans="1:1">
-      <c r="A577" s="20"/>
+      <c r="A577" s="19"/>
     </row>
     <row r="578" spans="1:1">
-      <c r="A578" s="20"/>
+      <c r="A578" s="19"/>
     </row>
     <row r="579" spans="1:1">
-      <c r="A579" s="20"/>
+      <c r="A579" s="19"/>
     </row>
     <row r="580" spans="1:1">
-      <c r="A580" s="20"/>
+      <c r="A580" s="19"/>
     </row>
     <row r="581" spans="1:1">
-      <c r="A581" s="20"/>
+      <c r="A581" s="19"/>
     </row>
     <row r="582" spans="1:1">
-      <c r="A582" s="20"/>
+      <c r="A582" s="19"/>
     </row>
     <row r="583" spans="1:1">
-      <c r="A583" s="20"/>
+      <c r="A583" s="19"/>
     </row>
     <row r="584" spans="1:1">
-      <c r="A584" s="20"/>
+      <c r="A584" s="19"/>
     </row>
     <row r="585" spans="1:1">
-      <c r="A585" s="20"/>
+      <c r="A585" s="19"/>
     </row>
     <row r="586" spans="1:1">
-      <c r="A586" s="20"/>
+      <c r="A586" s="19"/>
     </row>
     <row r="587" spans="1:1">
-      <c r="A587" s="20"/>
+      <c r="A587" s="19"/>
     </row>
     <row r="588" spans="1:1">
-      <c r="A588" s="20"/>
+      <c r="A588" s="19"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -4258,8 +4261,8 @@
   <sheetPr/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4377,11 +4380,17 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43068</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2"/>
@@ -4462,64 +4471,64 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
